--- a/data/interim/covid-19_v1.xlsx
+++ b/data/interim/covid-19_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josht\Documents\2020-2021 School Year\w203\lab_2-gogurt\data\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265F2811-DA29-45C7-9A0A-4EE1AC6C35BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76912E9-BC14-4894-9910-C364C2D9DF56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2871,8 +2871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A0C22F-99C9-4ECF-A142-1CF4E60FA6D9}">
   <dimension ref="A1:BM1078"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -13160,26 +13160,7 @@
       <c r="BM53"/>
     </row>
     <row r="54" spans="1:65">
-      <c r="B54" s="1">
-        <f>SUM(B3:B53)</f>
-        <v>8852730</v>
-      </c>
-      <c r="C54" s="1">
-        <f t="shared" ref="C54:F54" si="0">SUM(C3:C53)</f>
-        <v>532239</v>
-      </c>
-      <c r="D54" s="1">
-        <f t="shared" si="0"/>
-        <v>140221</v>
-      </c>
-      <c r="E54" s="1">
-        <f t="shared" si="0"/>
-        <v>1586.7999999999997</v>
-      </c>
-      <c r="F54" s="1">
-        <f t="shared" si="0"/>
-        <v>227178</v>
-      </c>
+      <c r="D54" s="1"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="4"/>
       <c r="AE54" s="5"/>
